--- a/data/special_projects.xlsx
+++ b/data/special_projects.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\project-x\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB2E956-75B4-47DC-9B88-3EE540B3AD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20520" windowHeight="10035"/>
+    <workbookView xWindow="43080" yWindow="-8670" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="74">
   <si>
     <t>兰州华铁工程监理咨询有限公司</t>
   </si>
@@ -140,19 +157,109 @@
   </si>
   <si>
     <t>广州政法信息网二期工程2015年度建设项目（涉密系统建设部分）第三方验收测评服务项目</t>
+  </si>
+  <si>
+    <t>芜湖凯信扬信息技术有限公司</t>
+  </si>
+  <si>
+    <t>安徽省芜湖地区监理项目</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>芜湖市机动车排气污染遥感监测平台第三方测试</t>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
+    <t>2020.05.12</t>
+  </si>
+  <si>
+    <t>提供路灯合同能源管理相关专业技术咨询服务</t>
+  </si>
+  <si>
+    <t>泗县城区路灯合同能源管理数字化系统改造监理服务项目</t>
+  </si>
+  <si>
+    <t>北京信安捷通科技有限公司</t>
+  </si>
+  <si>
+    <t>基础软件服务；应用软件服务；计算机系统服务</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/e5944bed7196518cab516c4688aaaef0.html</t>
+  </si>
+  <si>
+    <t>提供用户需求调研、需求材料梳理等专项服务</t>
+  </si>
+  <si>
+    <t>甲方指定的机房进行综合布线系统改造、机柜内外线缆排查梳理，故障线缆和网络链路维修等</t>
+  </si>
+  <si>
+    <t>校园安全综合保障与应急指挥技防平台建设项目</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>2020年</t>
+  </si>
+  <si>
+    <t>2019.07.19</t>
+  </si>
+  <si>
+    <t>北京国华世纪电子科技有限公司</t>
+  </si>
+  <si>
+    <t>技术转让、技术咨询、技术服务；技术检测；物联网设备、物联网网关；计算机系统服务；数据处理</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/238ef093d4017f6f115ebca5b89d117f.html</t>
+  </si>
+  <si>
+    <t>提供计算机网络及服务器相关检查检测服务</t>
+  </si>
+  <si>
+    <t>中国烟草总公司网络建设项目</t>
+  </si>
+  <si>
+    <t>2020070721A</t>
+  </si>
+  <si>
+    <t>2020.7.16</t>
+  </si>
+  <si>
+    <t>北京石景山区文化委公共文化服务效能大数据分析项目</t>
+  </si>
+  <si>
+    <t>流域降水预报服务平台软件测试项目</t>
+  </si>
+  <si>
+    <t>160205-02-02</t>
+  </si>
+  <si>
+    <t>应急管理部消防救援局信息建设项目“十三五”信息化建设监理服务（2018年度）</t>
+  </si>
+  <si>
+    <t>提供渗透测试服务</t>
+  </si>
+  <si>
+    <t>物联网平台渗透测试项目</t>
+  </si>
+  <si>
+    <t>160205-03</t>
+  </si>
+  <si>
+    <t>应急管理部消防救援局信息建设项目“十三五”信息化建设监理服务（2019年度）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,350 +268,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -512,316 +295,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1079,21 +576,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:GE15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:GE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="39" max="39" width="16.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:187">
+    <row r="1" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2019</v>
       </c>
@@ -1110,16 +610,16 @@
         <v>822000</v>
       </c>
       <c r="F1">
-        <v>66037.7358490566</v>
+        <v>66037.735849056597</v>
       </c>
       <c r="G1">
-        <v>0.0803378781618693</v>
+        <v>8.0337878161869297E-2</v>
       </c>
       <c r="H1">
         <v>252000</v>
       </c>
       <c r="I1">
-        <v>35245.1452967911</v>
+        <v>35245.145296791103</v>
       </c>
       <c r="J1">
         <v>1.06</v>
@@ -1128,7 +628,7 @@
         <v>0.139861687685679</v>
       </c>
       <c r="L1">
-        <v>37359.8540145986</v>
+        <v>37359.854014598597</v>
       </c>
       <c r="M1">
         <v>38000</v>
@@ -1155,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="U1">
-        <v>640.145985401403</v>
+        <v>640.14598540140298</v>
       </c>
       <c r="V1">
         <v>4000</v>
@@ -1218,25 +718,25 @@
         <v>13</v>
       </c>
       <c r="AS1">
-        <v>5286.77179451867</v>
+        <v>5286.7717945186696</v>
       </c>
       <c r="AT1">
-        <v>5603.97810218979</v>
+        <v>5603.9781021897898</v>
       </c>
       <c r="AU1">
         <v>0</v>
       </c>
       <c r="BB1">
-        <v>8811.28632419778</v>
+        <v>8811.2863241977793</v>
       </c>
       <c r="BC1">
-        <v>9339.96350364965</v>
+        <v>9339.9635036496493</v>
       </c>
       <c r="BD1">
         <v>0</v>
       </c>
       <c r="BK1">
-        <v>14098.0581187164</v>
+        <v>14098.058118716401</v>
       </c>
       <c r="BL1">
         <v>14943.9416058394</v>
@@ -1281,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="CB1">
-        <v>7049.02905935822</v>
+        <v>7049.0290593582204</v>
       </c>
       <c r="CC1">
         <v>7471.97080291971</v>
@@ -1473,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:187">
+    <row r="2" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1484,16 +984,16 @@
         <v>570000</v>
       </c>
       <c r="I2">
-        <v>30792.5905522655</v>
+        <v>30792.590552265501</v>
       </c>
       <c r="J2">
         <v>1.06</v>
       </c>
       <c r="K2">
-        <v>0.0540220886881851</v>
+        <v>5.4022088688185102E-2</v>
       </c>
       <c r="L2">
-        <v>32640.1459854014</v>
+        <v>32640.145985401399</v>
       </c>
       <c r="M2">
         <v>32000</v>
@@ -1628,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="CB2">
-        <v>1847.55543313593</v>
+        <v>1847.5554331359299</v>
       </c>
       <c r="CC2">
         <v>1958.40875912409</v>
@@ -1637,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="CK2">
-        <v>3387.1849607492</v>
+        <v>3387.1849607491999</v>
       </c>
       <c r="CL2">
-        <v>3590.41605839415</v>
+        <v>3590.4160583941498</v>
       </c>
       <c r="CM2">
         <v>0</v>
       </c>
       <c r="CT2">
-        <v>4618.88858283983</v>
+        <v>4618.8885828398297</v>
       </c>
       <c r="CU2">
-        <v>4896.02189781022</v>
+        <v>4896.0218978102203</v>
       </c>
       <c r="CV2">
         <v>0</v>
@@ -1691,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="DK2">
-        <v>4618.88858283983</v>
+        <v>4618.8885828398297</v>
       </c>
       <c r="DL2">
-        <v>4896.02189781022</v>
+        <v>4896.0218978102203</v>
       </c>
       <c r="DM2">
         <v>0</v>
@@ -1703,13 +1203,13 @@
         <v>5850.59220493045</v>
       </c>
       <c r="DU2">
-        <v>6201.62773722628</v>
+        <v>6201.6277372262803</v>
       </c>
       <c r="DV2">
         <v>0</v>
       </c>
       <c r="EC2">
-        <v>3695.11086627186</v>
+        <v>3695.1108662718598</v>
       </c>
       <c r="ED2">
         <v>3916.81751824817</v>
@@ -1736,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="EN2">
-        <v>15014.4671532847</v>
+        <v>15014.467153284701</v>
       </c>
       <c r="EO2">
         <v>16000</v>
@@ -1766,7 +1266,7 @@
         <v>0.08</v>
       </c>
       <c r="FD2">
-        <v>1847.55543313593</v>
+        <v>1847.5554331359299</v>
       </c>
       <c r="FE2">
         <v>1958.40875912409</v>
@@ -1802,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="FX2">
-        <v>5875.22627737226</v>
+        <v>5875.2262773722596</v>
       </c>
       <c r="FY2">
         <v>6000</v>
@@ -1823,7 +1323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:187">
+    <row r="3" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -1834,13 +1334,13 @@
         <v>488800</v>
       </c>
       <c r="F3">
-        <v>267698.113207547</v>
+        <v>267698.11320754699</v>
       </c>
       <c r="H3">
         <v>488800</v>
       </c>
       <c r="I3">
-        <v>53159.4554983945</v>
+        <v>53159.455498394498</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -1849,7 +1349,7 @@
         <v>0.10875502352372</v>
       </c>
       <c r="L3">
-        <v>56349.0228282982</v>
+        <v>56349.022828298199</v>
       </c>
       <c r="M3">
         <v>56000</v>
@@ -1876,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>-349.022828298199</v>
+        <v>-349.02282829819899</v>
       </c>
       <c r="V3">
         <v>4000</v>
@@ -1948,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="BV3">
-        <v>56349.0228282982</v>
+        <v>56349.022828298199</v>
       </c>
       <c r="BW3">
         <v>56000</v>
@@ -2077,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:187">
+    <row r="4" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -2097,10 +1597,10 @@
         <v>1.06</v>
       </c>
       <c r="K4">
-        <v>0.156306504815009</v>
+        <v>0.15630650481500899</v>
       </c>
       <c r="L4">
-        <v>94440.3902092286</v>
+        <v>94440.390209228601</v>
       </c>
       <c r="M4">
         <v>95000</v>
@@ -2124,10 +1624,10 @@
         <v>1000</v>
       </c>
       <c r="T4">
-        <v>0.0104166666666667</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="U4">
-        <v>559.609790771399</v>
+        <v>559.60979077139905</v>
       </c>
       <c r="V4">
         <v>6000</v>
@@ -2151,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.989583333333333</v>
+        <v>0.98958333333333304</v>
       </c>
       <c r="AF4" t="s">
         <v>20</v>
@@ -2235,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="DE4">
-        <v>66108.27314646</v>
+        <v>66108.273146459993</v>
       </c>
       <c r="DF4">
         <v>0</v>
@@ -2271,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="EN4">
-        <v>9444.03902092287</v>
+        <v>9444.0390209228699</v>
       </c>
       <c r="EO4">
         <v>0</v>
@@ -2328,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:187">
+    <row r="5" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -2348,10 +1848,10 @@
         <v>1.06</v>
       </c>
       <c r="K5">
-        <v>0.267516680605854</v>
+        <v>0.26751668060585398</v>
       </c>
       <c r="L5">
-        <v>27222.4974184517</v>
+        <v>27222.497418451701</v>
       </c>
       <c r="M5">
         <v>29760</v>
@@ -2375,7 +1875,7 @@
         <v>240</v>
       </c>
       <c r="T5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="U5">
         <v>2537.5025815483</v>
@@ -2402,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.992</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="AI5">
         <v>20071282</v>
@@ -2441,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>19872.4231154698</v>
+        <v>19872.423115469799</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2477,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="DE5">
-        <v>7350.07430298197</v>
+        <v>7350.0743029819696</v>
       </c>
       <c r="DF5">
         <v>0</v>
@@ -2570,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:187">
+    <row r="6" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -2584,16 +2084,16 @@
         <v>48000</v>
       </c>
       <c r="I6">
-        <v>2713.94310440586</v>
+        <v>2713.9431044058601</v>
       </c>
       <c r="J6">
         <v>1.06</v>
       </c>
       <c r="K6">
-        <v>0.0565404813417888</v>
+        <v>5.6540481341788802E-2</v>
       </c>
       <c r="L6">
-        <v>2876.77969067021</v>
+        <v>2876.7796906702101</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2620,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>-2876.77969067021</v>
+        <v>-2876.7796906702101</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -2686,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="BV6">
-        <v>2876.77969067021</v>
+        <v>2876.7796906702101</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -2815,7 +2315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:187">
+    <row r="7" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -2829,16 +2329,16 @@
         <v>80000</v>
       </c>
       <c r="I7">
-        <v>33334.2051740098</v>
+        <v>33334.205174009803</v>
       </c>
       <c r="J7">
         <v>1.06</v>
       </c>
       <c r="K7">
-        <v>0.416677564675123</v>
+        <v>0.41667756467512301</v>
       </c>
       <c r="L7">
-        <v>35334.2574844504</v>
+        <v>35334.257484450398</v>
       </c>
       <c r="M7">
         <v>35000</v>
@@ -2865,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>-334.257484450398</v>
+        <v>-334.25748445039801</v>
       </c>
       <c r="V7">
         <v>35000</v>
@@ -2967,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="DE7">
-        <v>10600.2772453351</v>
+        <v>10600.277245335101</v>
       </c>
       <c r="DF7">
         <v>0</v>
@@ -3003,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="EN7">
-        <v>24733.9802391153</v>
+        <v>24733.980239115299</v>
       </c>
       <c r="EO7">
         <v>35000</v>
@@ -3060,7 +2560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:187">
+    <row r="8" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -3074,7 +2574,7 @@
         <v>160000</v>
       </c>
       <c r="I8">
-        <v>63714.2003480195</v>
+        <v>63714.200348019498</v>
       </c>
       <c r="J8">
         <v>1.06</v>
@@ -3083,7 +2583,7 @@
         <v>0.398213752175122</v>
       </c>
       <c r="L8">
-        <v>67537.0523689007</v>
+        <v>67537.052368900695</v>
       </c>
       <c r="M8">
         <v>68000</v>
@@ -3212,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="DE8">
-        <v>43899.0840397854</v>
+        <v>43899.084039785397</v>
       </c>
       <c r="DF8">
         <v>0</v>
@@ -3305,7 +2805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:187">
+    <row r="9" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -3316,19 +2816,19 @@
         <v>657188</v>
       </c>
       <c r="F9">
-        <v>330188.679245283</v>
+        <v>330188.67924528301</v>
       </c>
       <c r="H9">
         <v>657188</v>
       </c>
       <c r="I9">
-        <v>50221.369047475</v>
+        <v>50221.369047474996</v>
       </c>
       <c r="J9">
         <v>1.06</v>
       </c>
       <c r="K9">
-        <v>0.0764185728398495</v>
+        <v>7.64185728398495E-2</v>
       </c>
       <c r="L9">
         <v>53234.6511903235</v>
@@ -3358,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>765.3488096765</v>
+        <v>765.34880967649997</v>
       </c>
       <c r="V9">
         <v>12000</v>
@@ -3562,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:187">
+    <row r="10" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -3576,7 +3076,7 @@
         <v>29500</v>
       </c>
       <c r="I10">
-        <v>3395.86484983873</v>
+        <v>3395.8648498387302</v>
       </c>
       <c r="J10">
         <v>1.06</v>
@@ -3585,7 +3085,7 @@
         <v>0.115114062706398</v>
       </c>
       <c r="L10">
-        <v>3599.61674082905</v>
+        <v>3599.6167408290498</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -3612,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>-3599.61674082905</v>
+        <v>-3599.6167408290498</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -3684,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="BV10">
-        <v>3599.61674082905</v>
+        <v>3599.6167408290498</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -3813,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:187">
+    <row r="11" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -3833,10 +3333,10 @@
         <v>1.06</v>
       </c>
       <c r="K11">
-        <v>0.127707918823933</v>
+        <v>0.12770791882393301</v>
       </c>
       <c r="L11">
-        <v>48733.3418232128</v>
+        <v>48733.341823212802</v>
       </c>
       <c r="M11">
         <v>48000</v>
@@ -3863,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>-733.341823212802</v>
+        <v>-733.34182321280196</v>
       </c>
       <c r="V11">
         <v>12000</v>
@@ -3929,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="BV11">
-        <v>2436.66709116064</v>
+        <v>2436.6670911606402</v>
       </c>
       <c r="BW11">
         <v>0</v>
@@ -3965,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="DE11">
-        <v>46296.6747320521</v>
+        <v>46296.674732052103</v>
       </c>
       <c r="DF11">
         <v>48000</v>
@@ -4058,7 +3558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:187">
+    <row r="12" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -4072,16 +3572,16 @@
         <v>158000</v>
       </c>
       <c r="I12">
-        <v>7900.24750083115</v>
+        <v>7900.2475008311503</v>
       </c>
       <c r="J12">
         <v>1.06</v>
       </c>
       <c r="K12">
-        <v>0.0500015664609566</v>
+        <v>5.0001566460956597E-2</v>
       </c>
       <c r="L12">
-        <v>8374.26235088102</v>
+        <v>8374.2623508810193</v>
       </c>
       <c r="M12">
         <v>14000</v>
@@ -4108,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>5625.73764911898</v>
+        <v>5625.7376491189798</v>
       </c>
       <c r="V12">
         <v>14000</v>
@@ -4174,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="BV12">
-        <v>5024.55741052861</v>
+        <v>5024.5574105286096</v>
       </c>
       <c r="BW12">
         <v>0</v>
@@ -4210,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="DE12">
-        <v>3349.70494035241</v>
+        <v>3349.7049403524102</v>
       </c>
       <c r="DF12">
         <v>14000</v>
@@ -4303,7 +3803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:187">
+    <row r="13" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -4317,16 +3817,16 @@
         <v>89000</v>
       </c>
       <c r="I13">
-        <v>8097.44327578463</v>
+        <v>8097.4432757846298</v>
       </c>
       <c r="J13">
         <v>1.06</v>
       </c>
       <c r="K13">
-        <v>0.0909825087166812</v>
+        <v>9.0982508716681204E-2</v>
       </c>
       <c r="L13">
-        <v>8583.28987233171</v>
+        <v>8583.2898723317103</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -4353,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>-8583.28987233171</v>
+        <v>-8583.2898723317103</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -4419,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="BV13">
-        <v>8583.28987233171</v>
+        <v>8583.2898723317103</v>
       </c>
       <c r="BW13">
         <v>0</v>
@@ -4548,7 +4048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:187">
+    <row r="14" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -4562,16 +4062,16 @@
         <v>346600</v>
       </c>
       <c r="I14">
-        <v>64138.4750492916</v>
+        <v>64138.475049291599</v>
       </c>
       <c r="J14">
         <v>1.06</v>
       </c>
       <c r="K14">
-        <v>0.185050418491897</v>
+        <v>0.18505041849189699</v>
       </c>
       <c r="L14">
-        <v>67986.7835522491</v>
+        <v>67986.783552249093</v>
       </c>
       <c r="M14">
         <v>72000</v>
@@ -4664,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="BV14">
-        <v>67986.7835522491</v>
+        <v>67986.783552249093</v>
       </c>
       <c r="BW14">
         <v>72000</v>
@@ -4793,7 +4293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:187">
+    <row r="15" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -4813,7 +4313,7 @@
         <v>1.06</v>
       </c>
       <c r="K15">
-        <v>0.252450383801084</v>
+        <v>0.25245038380108398</v>
       </c>
       <c r="L15">
         <v>159488.054470173</v>
@@ -4867,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>0.964285714285714</v>
+        <v>0.96428571428571397</v>
       </c>
       <c r="AH15" t="s">
         <v>7</v>
@@ -5041,8 +4541,2627 @@
         <v>8</v>
       </c>
     </row>
+    <row r="16" spans="1:187" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2020</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>35000</v>
+      </c>
+      <c r="F16">
+        <v>32620</v>
+      </c>
+      <c r="H16">
+        <v>35000</v>
+      </c>
+      <c r="I16">
+        <v>6283.7168314641203</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0.17953476661326059</v>
+      </c>
+      <c r="L16">
+        <v>6283.7168314641203</v>
+      </c>
+      <c r="M16">
+        <v>6000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16">
+        <v>6000</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>-283.71683146412033</v>
+      </c>
+      <c r="V16">
+        <v>6000</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>6000</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI16">
+        <v>19105126</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM16">
+        <v>43756</v>
+      </c>
+      <c r="AN16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO16">
+        <v>7</v>
+      </c>
+      <c r="AQ16">
+        <v>2020050134</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DB16">
+        <v>0</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DD16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DF16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DH16">
+        <v>0</v>
+      </c>
+      <c r="DI16">
+        <v>0</v>
+      </c>
+      <c r="DJ16">
+        <v>0</v>
+      </c>
+      <c r="EH16">
+        <v>1</v>
+      </c>
+      <c r="EI16">
+        <v>0</v>
+      </c>
+      <c r="EJ16">
+        <v>1</v>
+      </c>
+      <c r="EK16">
+        <v>0</v>
+      </c>
+      <c r="EL16">
+        <v>1</v>
+      </c>
+      <c r="EM16">
+        <v>0</v>
+      </c>
+      <c r="EN16">
+        <v>6283.7168314641203</v>
+      </c>
+      <c r="EO16">
+        <v>6000</v>
+      </c>
+      <c r="EP16">
+        <v>6000</v>
+      </c>
+      <c r="EQ16">
+        <v>6000</v>
+      </c>
+      <c r="ER16">
+        <v>0</v>
+      </c>
+      <c r="ES16">
+        <v>0</v>
+      </c>
+      <c r="FR16">
+        <v>0</v>
+      </c>
+      <c r="FS16">
+        <v>0</v>
+      </c>
+      <c r="FT16">
+        <v>0</v>
+      </c>
+      <c r="FU16">
+        <v>0</v>
+      </c>
+      <c r="FV16">
+        <v>0</v>
+      </c>
+      <c r="FW16">
+        <v>0</v>
+      </c>
+      <c r="FX16">
+        <v>0</v>
+      </c>
+      <c r="FY16">
+        <v>0</v>
+      </c>
+      <c r="FZ16">
+        <v>0</v>
+      </c>
+      <c r="GA16">
+        <v>0</v>
+      </c>
+      <c r="GB16">
+        <v>0</v>
+      </c>
+      <c r="GC16">
+        <v>0</v>
+      </c>
+      <c r="GE16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:187" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>189500</v>
+      </c>
+      <c r="H17">
+        <v>189500</v>
+      </c>
+      <c r="I17">
+        <v>26336.283168535901</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0.13897774759121848</v>
+      </c>
+      <c r="L17">
+        <v>26336.283168535901</v>
+      </c>
+      <c r="M17">
+        <v>26620</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>48</v>
+      </c>
+      <c r="R17">
+        <v>27000</v>
+      </c>
+      <c r="S17">
+        <v>380</v>
+      </c>
+      <c r="T17">
+        <v>1.4074074074074074E-2</v>
+      </c>
+      <c r="U17">
+        <v>283.7168314640985</v>
+      </c>
+      <c r="V17">
+        <v>27000</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>27000</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0.98592592592592587</v>
+      </c>
+      <c r="AI17">
+        <v>18120626</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM17">
+        <v>43496</v>
+      </c>
+      <c r="AN17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO17">
+        <v>9</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>6584.0707921339799</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
+        <v>0</v>
+      </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CY17">
+        <v>1</v>
+      </c>
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="DA17">
+        <v>1</v>
+      </c>
+      <c r="DB17">
+        <v>0</v>
+      </c>
+      <c r="DC17">
+        <v>1</v>
+      </c>
+      <c r="DD17">
+        <v>0</v>
+      </c>
+      <c r="DE17">
+        <v>13168.141584268</v>
+      </c>
+      <c r="DF17">
+        <v>26620</v>
+      </c>
+      <c r="DG17">
+        <v>27000</v>
+      </c>
+      <c r="DH17">
+        <v>27000</v>
+      </c>
+      <c r="DI17">
+        <v>380</v>
+      </c>
+      <c r="DJ17">
+        <v>380</v>
+      </c>
+      <c r="EH17">
+        <v>0</v>
+      </c>
+      <c r="EI17">
+        <v>0</v>
+      </c>
+      <c r="EJ17">
+        <v>0</v>
+      </c>
+      <c r="EK17">
+        <v>0</v>
+      </c>
+      <c r="EL17">
+        <v>0</v>
+      </c>
+      <c r="EM17">
+        <v>0</v>
+      </c>
+      <c r="EN17">
+        <v>6584.0707921339799</v>
+      </c>
+      <c r="EO17">
+        <v>0</v>
+      </c>
+      <c r="EP17">
+        <v>0</v>
+      </c>
+      <c r="EQ17">
+        <v>0</v>
+      </c>
+      <c r="ER17">
+        <v>0</v>
+      </c>
+      <c r="ES17">
+        <v>0</v>
+      </c>
+      <c r="FR17">
+        <v>0</v>
+      </c>
+      <c r="FS17">
+        <v>0</v>
+      </c>
+      <c r="FT17">
+        <v>0</v>
+      </c>
+      <c r="FU17">
+        <v>0</v>
+      </c>
+      <c r="FV17">
+        <v>0</v>
+      </c>
+      <c r="FW17">
+        <v>0</v>
+      </c>
+      <c r="FX17">
+        <v>0</v>
+      </c>
+      <c r="FY17">
+        <v>0</v>
+      </c>
+      <c r="FZ17">
+        <v>0</v>
+      </c>
+      <c r="GA17">
+        <v>0</v>
+      </c>
+      <c r="GB17">
+        <v>0</v>
+      </c>
+      <c r="GC17">
+        <v>0</v>
+      </c>
+      <c r="GE17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:187" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18">
+        <v>100000</v>
+      </c>
+      <c r="F18">
+        <v>23867.924528301886</v>
+      </c>
+      <c r="G18">
+        <v>0.23867924528301887</v>
+      </c>
+      <c r="H18">
+        <v>100000</v>
+      </c>
+      <c r="I18">
+        <v>23867.924528301901</v>
+      </c>
+      <c r="J18">
+        <v>1.06</v>
+      </c>
+      <c r="K18">
+        <v>0.23867924528301901</v>
+      </c>
+      <c r="L18">
+        <v>25300.000000000015</v>
+      </c>
+      <c r="M18">
+        <v>25300</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18">
+        <v>25300</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>25300</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>25300</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI18">
+        <v>18100514</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM18">
+        <v>43409</v>
+      </c>
+      <c r="AN18">
+        <v>43811</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS18">
+        <v>1193.3962264151</v>
+      </c>
+      <c r="AT18">
+        <v>1265.0000000000061</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>1193.3962264151</v>
+      </c>
+      <c r="BC18">
+        <v>1265.0000000000061</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>2386.7924528301901</v>
+      </c>
+      <c r="BL18">
+        <v>2530.0000000000018</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>5060.0000000000146</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18">
+        <v>0</v>
+      </c>
+      <c r="BZ18">
+        <v>0</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
+        <v>2386.7924528301901</v>
+      </c>
+      <c r="CC18">
+        <v>2530.0000000000018</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CK18">
+        <v>3580.1886792452901</v>
+      </c>
+      <c r="CL18">
+        <v>3795.0000000000077</v>
+      </c>
+      <c r="CM18">
+        <v>0</v>
+      </c>
+      <c r="CT18">
+        <v>3580.1886792452901</v>
+      </c>
+      <c r="CU18">
+        <v>3795.0000000000077</v>
+      </c>
+      <c r="CV18">
+        <v>0</v>
+      </c>
+      <c r="CY18">
+        <v>1</v>
+      </c>
+      <c r="CZ18">
+        <v>0</v>
+      </c>
+      <c r="DA18">
+        <v>1</v>
+      </c>
+      <c r="DB18">
+        <v>0</v>
+      </c>
+      <c r="DC18">
+        <v>1</v>
+      </c>
+      <c r="DD18">
+        <v>0</v>
+      </c>
+      <c r="DE18">
+        <v>10120.000000000018</v>
+      </c>
+      <c r="DF18">
+        <v>25300</v>
+      </c>
+      <c r="DG18">
+        <v>25300</v>
+      </c>
+      <c r="DH18">
+        <v>25300</v>
+      </c>
+      <c r="DI18">
+        <v>0</v>
+      </c>
+      <c r="DJ18">
+        <v>0</v>
+      </c>
+      <c r="DK18">
+        <v>2386.7924528301901</v>
+      </c>
+      <c r="DL18">
+        <v>2530.0000000000018</v>
+      </c>
+      <c r="DM18">
+        <v>0</v>
+      </c>
+      <c r="DT18">
+        <v>2386.7924528301901</v>
+      </c>
+      <c r="DU18">
+        <v>2530.0000000000018</v>
+      </c>
+      <c r="DV18">
+        <v>0</v>
+      </c>
+      <c r="EC18">
+        <v>1193.3962264151</v>
+      </c>
+      <c r="ED18">
+        <v>1265.0000000000061</v>
+      </c>
+      <c r="EE18">
+        <v>0</v>
+      </c>
+      <c r="EH18">
+        <v>0</v>
+      </c>
+      <c r="EI18">
+        <v>0</v>
+      </c>
+      <c r="EJ18">
+        <v>0</v>
+      </c>
+      <c r="EK18">
+        <v>0</v>
+      </c>
+      <c r="EL18">
+        <v>0</v>
+      </c>
+      <c r="EM18">
+        <v>0</v>
+      </c>
+      <c r="EN18">
+        <v>6325.00000000001</v>
+      </c>
+      <c r="EO18">
+        <v>0</v>
+      </c>
+      <c r="EP18">
+        <v>0</v>
+      </c>
+      <c r="EQ18">
+        <v>0</v>
+      </c>
+      <c r="ER18">
+        <v>0</v>
+      </c>
+      <c r="ES18">
+        <v>0</v>
+      </c>
+      <c r="ET18">
+        <v>1193.3962264151</v>
+      </c>
+      <c r="EU18">
+        <v>1265.0000000000061</v>
+      </c>
+      <c r="EV18">
+        <v>0</v>
+      </c>
+      <c r="FC18">
+        <v>0.05</v>
+      </c>
+      <c r="FD18">
+        <v>1193.3962264151</v>
+      </c>
+      <c r="FE18">
+        <v>1265.0000000000061</v>
+      </c>
+      <c r="FF18">
+        <v>0</v>
+      </c>
+      <c r="FM18">
+        <v>1193.3962264151</v>
+      </c>
+      <c r="FN18">
+        <v>1265.0000000000061</v>
+      </c>
+      <c r="FO18">
+        <v>0</v>
+      </c>
+      <c r="FR18">
+        <v>0</v>
+      </c>
+      <c r="FS18">
+        <v>0</v>
+      </c>
+      <c r="FT18">
+        <v>0</v>
+      </c>
+      <c r="FU18">
+        <v>0</v>
+      </c>
+      <c r="FV18">
+        <v>0</v>
+      </c>
+      <c r="FW18">
+        <v>0</v>
+      </c>
+      <c r="FX18">
+        <v>3795.0000000000182</v>
+      </c>
+      <c r="FY18">
+        <v>0</v>
+      </c>
+      <c r="FZ18">
+        <v>0</v>
+      </c>
+      <c r="GA18">
+        <v>0</v>
+      </c>
+      <c r="GB18">
+        <v>0</v>
+      </c>
+      <c r="GC18">
+        <v>0</v>
+      </c>
+      <c r="GE18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:187" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19">
+        <v>50000</v>
+      </c>
+      <c r="F19">
+        <v>164743.396226415</v>
+      </c>
+      <c r="H19">
+        <v>50000</v>
+      </c>
+      <c r="I19">
+        <v>9433.9622641509395</v>
+      </c>
+      <c r="J19">
+        <v>1.06</v>
+      </c>
+      <c r="K19">
+        <v>0.18867924528301899</v>
+      </c>
+      <c r="L19">
+        <v>10000</v>
+      </c>
+      <c r="M19">
+        <v>10000</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19">
+        <v>10000</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>10000</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>10000</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI19">
+        <v>160226</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM19">
+        <v>42607</v>
+      </c>
+      <c r="AN19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>4000</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19">
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CY19">
+        <v>0</v>
+      </c>
+      <c r="CZ19">
+        <v>0</v>
+      </c>
+      <c r="DA19">
+        <v>0</v>
+      </c>
+      <c r="DB19">
+        <v>0</v>
+      </c>
+      <c r="DC19">
+        <v>0</v>
+      </c>
+      <c r="DD19">
+        <v>0</v>
+      </c>
+      <c r="DE19">
+        <v>4999.99999999999</v>
+      </c>
+      <c r="DF19">
+        <v>0</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DH19">
+        <v>0</v>
+      </c>
+      <c r="DI19">
+        <v>0</v>
+      </c>
+      <c r="DJ19">
+        <v>0</v>
+      </c>
+      <c r="EH19">
+        <v>1</v>
+      </c>
+      <c r="EI19">
+        <v>0</v>
+      </c>
+      <c r="EJ19">
+        <v>1</v>
+      </c>
+      <c r="EK19">
+        <v>0</v>
+      </c>
+      <c r="EL19">
+        <v>1</v>
+      </c>
+      <c r="EM19">
+        <v>0</v>
+      </c>
+      <c r="EN19">
+        <v>1000</v>
+      </c>
+      <c r="EO19">
+        <v>10000</v>
+      </c>
+      <c r="EP19">
+        <v>10000</v>
+      </c>
+      <c r="EQ19">
+        <v>10000</v>
+      </c>
+      <c r="ER19">
+        <v>0</v>
+      </c>
+      <c r="ES19">
+        <v>0</v>
+      </c>
+      <c r="FR19">
+        <v>0</v>
+      </c>
+      <c r="FS19">
+        <v>0</v>
+      </c>
+      <c r="FT19">
+        <v>0</v>
+      </c>
+      <c r="FU19">
+        <v>0</v>
+      </c>
+      <c r="FV19">
+        <v>0</v>
+      </c>
+      <c r="FW19">
+        <v>0</v>
+      </c>
+      <c r="FX19">
+        <v>0</v>
+      </c>
+      <c r="FY19">
+        <v>0</v>
+      </c>
+      <c r="FZ19">
+        <v>0</v>
+      </c>
+      <c r="GA19">
+        <v>0</v>
+      </c>
+      <c r="GB19">
+        <v>0</v>
+      </c>
+      <c r="GC19">
+        <v>0</v>
+      </c>
+      <c r="GE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:187" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2020</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>100000</v>
+      </c>
+      <c r="H20">
+        <v>100000</v>
+      </c>
+      <c r="I20">
+        <v>3514.0406990711999</v>
+      </c>
+      <c r="J20">
+        <v>1.06</v>
+      </c>
+      <c r="K20">
+        <v>3.5140406990711998E-2</v>
+      </c>
+      <c r="L20">
+        <v>3724.8831410154698</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>-3724.8831410154698</v>
+      </c>
+      <c r="V20">
+        <v>10000</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>18100514</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM20">
+        <v>43409</v>
+      </c>
+      <c r="AN20">
+        <v>43811</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>3724.8831410154698</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>0</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DA20">
+        <v>0</v>
+      </c>
+      <c r="DB20">
+        <v>0</v>
+      </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
+      <c r="DD20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>0</v>
+      </c>
+      <c r="DF20">
+        <v>0</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DH20">
+        <v>0</v>
+      </c>
+      <c r="DI20">
+        <v>0</v>
+      </c>
+      <c r="DJ20">
+        <v>0</v>
+      </c>
+      <c r="EH20">
+        <v>0</v>
+      </c>
+      <c r="EI20">
+        <v>0</v>
+      </c>
+      <c r="EJ20">
+        <v>0</v>
+      </c>
+      <c r="EK20">
+        <v>0</v>
+      </c>
+      <c r="EL20">
+        <v>0</v>
+      </c>
+      <c r="EM20">
+        <v>0</v>
+      </c>
+      <c r="EN20">
+        <v>0</v>
+      </c>
+      <c r="EO20">
+        <v>0</v>
+      </c>
+      <c r="EP20">
+        <v>0</v>
+      </c>
+      <c r="EQ20">
+        <v>0</v>
+      </c>
+      <c r="ER20">
+        <v>0</v>
+      </c>
+      <c r="ES20">
+        <v>0</v>
+      </c>
+      <c r="FR20">
+        <v>0</v>
+      </c>
+      <c r="FS20">
+        <v>0</v>
+      </c>
+      <c r="FT20">
+        <v>0</v>
+      </c>
+      <c r="FU20">
+        <v>0</v>
+      </c>
+      <c r="FV20">
+        <v>0</v>
+      </c>
+      <c r="FW20">
+        <v>0</v>
+      </c>
+      <c r="FX20">
+        <v>0</v>
+      </c>
+      <c r="FY20">
+        <v>0</v>
+      </c>
+      <c r="FZ20">
+        <v>0</v>
+      </c>
+      <c r="GA20">
+        <v>0</v>
+      </c>
+      <c r="GB20">
+        <v>0</v>
+      </c>
+      <c r="GC20">
+        <v>0</v>
+      </c>
+      <c r="GE20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:187" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21">
+        <v>70000</v>
+      </c>
+      <c r="H21">
+        <v>70000</v>
+      </c>
+      <c r="I21">
+        <v>2578.2509513206001</v>
+      </c>
+      <c r="J21">
+        <v>1.06</v>
+      </c>
+      <c r="K21">
+        <v>3.6832156447437099E-2</v>
+      </c>
+      <c r="L21">
+        <v>2732.9460083998401</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>-2732.9460083998401</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>19051047</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM21">
+        <v>43633</v>
+      </c>
+      <c r="AN21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO21">
+        <v>8</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21">
+        <v>0</v>
+      </c>
+      <c r="BZ21">
+        <v>0</v>
+      </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
+      <c r="CY21">
+        <v>0</v>
+      </c>
+      <c r="CZ21">
+        <v>0</v>
+      </c>
+      <c r="DA21">
+        <v>0</v>
+      </c>
+      <c r="DB21">
+        <v>0</v>
+      </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
+      <c r="DD21">
+        <v>0</v>
+      </c>
+      <c r="DE21">
+        <v>0</v>
+      </c>
+      <c r="DF21">
+        <v>0</v>
+      </c>
+      <c r="DG21">
+        <v>0</v>
+      </c>
+      <c r="DH21">
+        <v>0</v>
+      </c>
+      <c r="DI21">
+        <v>0</v>
+      </c>
+      <c r="DJ21">
+        <v>0</v>
+      </c>
+      <c r="EH21">
+        <v>0</v>
+      </c>
+      <c r="EI21">
+        <v>0</v>
+      </c>
+      <c r="EJ21">
+        <v>0</v>
+      </c>
+      <c r="EK21">
+        <v>0</v>
+      </c>
+      <c r="EL21">
+        <v>0</v>
+      </c>
+      <c r="EM21">
+        <v>0</v>
+      </c>
+      <c r="EN21">
+        <v>2732.9460083998401</v>
+      </c>
+      <c r="EO21">
+        <v>0</v>
+      </c>
+      <c r="EP21">
+        <v>0</v>
+      </c>
+      <c r="EQ21">
+        <v>0</v>
+      </c>
+      <c r="ER21">
+        <v>0</v>
+      </c>
+      <c r="ES21">
+        <v>0</v>
+      </c>
+      <c r="FR21">
+        <v>0</v>
+      </c>
+      <c r="FS21">
+        <v>0</v>
+      </c>
+      <c r="FT21">
+        <v>0</v>
+      </c>
+      <c r="FU21">
+        <v>0</v>
+      </c>
+      <c r="FV21">
+        <v>0</v>
+      </c>
+      <c r="FW21">
+        <v>0</v>
+      </c>
+      <c r="FX21">
+        <v>0</v>
+      </c>
+      <c r="FY21">
+        <v>0</v>
+      </c>
+      <c r="FZ21">
+        <v>0</v>
+      </c>
+      <c r="GA21">
+        <v>0</v>
+      </c>
+      <c r="GB21">
+        <v>0</v>
+      </c>
+      <c r="GC21">
+        <v>0</v>
+      </c>
+      <c r="GE21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:187" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22">
+        <v>20000</v>
+      </c>
+      <c r="H22">
+        <v>20000</v>
+      </c>
+      <c r="I22">
+        <v>1722.5259860916001</v>
+      </c>
+      <c r="J22">
+        <v>1.06</v>
+      </c>
+      <c r="K22">
+        <v>8.6126299304580003E-2</v>
+      </c>
+      <c r="L22">
+        <v>1825.8775452571001</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>-1825.8775452571001</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>20041075</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM22">
+        <v>43935</v>
+      </c>
+      <c r="AN22">
+        <v>43938</v>
+      </c>
+      <c r="AO22">
+        <v>4</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22">
+        <v>0</v>
+      </c>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
+      <c r="CY22">
+        <v>0</v>
+      </c>
+      <c r="CZ22">
+        <v>0</v>
+      </c>
+      <c r="DA22">
+        <v>0</v>
+      </c>
+      <c r="DB22">
+        <v>0</v>
+      </c>
+      <c r="DC22">
+        <v>0</v>
+      </c>
+      <c r="DD22">
+        <v>0</v>
+      </c>
+      <c r="DE22">
+        <v>1825.8775452571001</v>
+      </c>
+      <c r="DF22">
+        <v>0</v>
+      </c>
+      <c r="DG22">
+        <v>0</v>
+      </c>
+      <c r="DH22">
+        <v>0</v>
+      </c>
+      <c r="DI22">
+        <v>0</v>
+      </c>
+      <c r="DJ22">
+        <v>0</v>
+      </c>
+      <c r="EH22">
+        <v>0</v>
+      </c>
+      <c r="EI22">
+        <v>0</v>
+      </c>
+      <c r="EJ22">
+        <v>0</v>
+      </c>
+      <c r="EK22">
+        <v>0</v>
+      </c>
+      <c r="EL22">
+        <v>0</v>
+      </c>
+      <c r="EM22">
+        <v>0</v>
+      </c>
+      <c r="EN22">
+        <v>0</v>
+      </c>
+      <c r="EO22">
+        <v>0</v>
+      </c>
+      <c r="EP22">
+        <v>0</v>
+      </c>
+      <c r="EQ22">
+        <v>0</v>
+      </c>
+      <c r="ER22">
+        <v>0</v>
+      </c>
+      <c r="ES22">
+        <v>0</v>
+      </c>
+      <c r="FR22">
+        <v>0</v>
+      </c>
+      <c r="FS22">
+        <v>0</v>
+      </c>
+      <c r="FT22">
+        <v>0</v>
+      </c>
+      <c r="FU22">
+        <v>0</v>
+      </c>
+      <c r="FV22">
+        <v>0</v>
+      </c>
+      <c r="FW22">
+        <v>0</v>
+      </c>
+      <c r="FX22">
+        <v>0</v>
+      </c>
+      <c r="FY22">
+        <v>0</v>
+      </c>
+      <c r="FZ22">
+        <v>0</v>
+      </c>
+      <c r="GA22">
+        <v>0</v>
+      </c>
+      <c r="GB22">
+        <v>0</v>
+      </c>
+      <c r="GC22">
+        <v>0</v>
+      </c>
+      <c r="GE22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:187" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23">
+        <v>205375</v>
+      </c>
+      <c r="H23">
+        <v>772175</v>
+      </c>
+      <c r="I23">
+        <v>37735.849056603802</v>
+      </c>
+      <c r="J23">
+        <v>1.06</v>
+      </c>
+      <c r="K23">
+        <v>4.8869555549718398E-2</v>
+      </c>
+      <c r="L23">
+        <v>40000</v>
+      </c>
+      <c r="M23">
+        <v>40000</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>62</v>
+      </c>
+      <c r="R23">
+        <v>40000</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>40000</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>40000</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM23">
+        <v>43446</v>
+      </c>
+      <c r="AN23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>16000</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+      <c r="CY23">
+        <v>0</v>
+      </c>
+      <c r="CZ23">
+        <v>0</v>
+      </c>
+      <c r="DA23">
+        <v>0</v>
+      </c>
+      <c r="DB23">
+        <v>0</v>
+      </c>
+      <c r="DC23">
+        <v>0</v>
+      </c>
+      <c r="DD23">
+        <v>0</v>
+      </c>
+      <c r="DE23">
+        <v>22000</v>
+      </c>
+      <c r="DF23">
+        <v>0</v>
+      </c>
+      <c r="DG23">
+        <v>0</v>
+      </c>
+      <c r="DH23">
+        <v>0</v>
+      </c>
+      <c r="DI23">
+        <v>0</v>
+      </c>
+      <c r="DJ23">
+        <v>0</v>
+      </c>
+      <c r="EH23">
+        <v>1</v>
+      </c>
+      <c r="EI23">
+        <v>0</v>
+      </c>
+      <c r="EJ23">
+        <v>1</v>
+      </c>
+      <c r="EK23">
+        <v>0</v>
+      </c>
+      <c r="EL23">
+        <v>1</v>
+      </c>
+      <c r="EM23">
+        <v>0</v>
+      </c>
+      <c r="EN23">
+        <v>2000</v>
+      </c>
+      <c r="EO23">
+        <v>40000</v>
+      </c>
+      <c r="EP23">
+        <v>40000</v>
+      </c>
+      <c r="EQ23">
+        <v>40000</v>
+      </c>
+      <c r="ER23">
+        <v>0</v>
+      </c>
+      <c r="ES23">
+        <v>0</v>
+      </c>
+      <c r="FR23">
+        <v>0</v>
+      </c>
+      <c r="FS23">
+        <v>0</v>
+      </c>
+      <c r="FT23">
+        <v>0</v>
+      </c>
+      <c r="FU23">
+        <v>0</v>
+      </c>
+      <c r="FV23">
+        <v>0</v>
+      </c>
+      <c r="FW23">
+        <v>0</v>
+      </c>
+      <c r="FX23">
+        <v>0</v>
+      </c>
+      <c r="FY23">
+        <v>0</v>
+      </c>
+      <c r="FZ23">
+        <v>0</v>
+      </c>
+      <c r="GA23">
+        <v>0</v>
+      </c>
+      <c r="GB23">
+        <v>0</v>
+      </c>
+      <c r="GC23">
+        <v>0</v>
+      </c>
+      <c r="GE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:187" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24">
+        <v>40000</v>
+      </c>
+      <c r="H24">
+        <v>40000</v>
+      </c>
+      <c r="I24">
+        <v>7547.1698113207503</v>
+      </c>
+      <c r="J24">
+        <v>1.06</v>
+      </c>
+      <c r="K24">
+        <v>0.18867924528301899</v>
+      </c>
+      <c r="L24">
+        <v>8000</v>
+      </c>
+      <c r="M24">
+        <v>10000</v>
+      </c>
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24">
+        <v>10000</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>2000</v>
+      </c>
+      <c r="V24">
+        <v>10000</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>10000</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>20071310</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM24">
+        <v>44043</v>
+      </c>
+      <c r="AN24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>0</v>
+      </c>
+      <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>3999.99999999999</v>
+      </c>
+      <c r="BW24">
+        <v>0</v>
+      </c>
+      <c r="BX24">
+        <v>0</v>
+      </c>
+      <c r="BY24">
+        <v>0</v>
+      </c>
+      <c r="BZ24">
+        <v>0</v>
+      </c>
+      <c r="CA24">
+        <v>0</v>
+      </c>
+      <c r="CY24">
+        <v>0</v>
+      </c>
+      <c r="CZ24">
+        <v>0</v>
+      </c>
+      <c r="DA24">
+        <v>0</v>
+      </c>
+      <c r="DB24">
+        <v>0</v>
+      </c>
+      <c r="DC24">
+        <v>0</v>
+      </c>
+      <c r="DD24">
+        <v>0</v>
+      </c>
+      <c r="DE24">
+        <v>3600</v>
+      </c>
+      <c r="DF24">
+        <v>0</v>
+      </c>
+      <c r="DG24">
+        <v>0</v>
+      </c>
+      <c r="DH24">
+        <v>0</v>
+      </c>
+      <c r="DI24">
+        <v>0</v>
+      </c>
+      <c r="DJ24">
+        <v>0</v>
+      </c>
+      <c r="EH24">
+        <v>1</v>
+      </c>
+      <c r="EI24">
+        <v>0</v>
+      </c>
+      <c r="EJ24">
+        <v>1</v>
+      </c>
+      <c r="EK24">
+        <v>0</v>
+      </c>
+      <c r="EL24">
+        <v>1</v>
+      </c>
+      <c r="EM24">
+        <v>0</v>
+      </c>
+      <c r="EN24">
+        <v>400</v>
+      </c>
+      <c r="EO24">
+        <v>10000</v>
+      </c>
+      <c r="EP24">
+        <v>10000</v>
+      </c>
+      <c r="EQ24">
+        <v>10000</v>
+      </c>
+      <c r="ER24">
+        <v>0</v>
+      </c>
+      <c r="ES24">
+        <v>0</v>
+      </c>
+      <c r="FR24">
+        <v>0</v>
+      </c>
+      <c r="FS24">
+        <v>0</v>
+      </c>
+      <c r="FT24">
+        <v>0</v>
+      </c>
+      <c r="FU24">
+        <v>0</v>
+      </c>
+      <c r="FV24">
+        <v>0</v>
+      </c>
+      <c r="FW24">
+        <v>0</v>
+      </c>
+      <c r="FX24">
+        <v>0</v>
+      </c>
+      <c r="FY24">
+        <v>0</v>
+      </c>
+      <c r="FZ24">
+        <v>0</v>
+      </c>
+      <c r="GA24">
+        <v>0</v>
+      </c>
+      <c r="GB24">
+        <v>0</v>
+      </c>
+      <c r="GC24">
+        <v>0</v>
+      </c>
+      <c r="GE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:187" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>710897.8</v>
+      </c>
+      <c r="H25">
+        <v>710897.8</v>
+      </c>
+      <c r="I25">
+        <v>102211.597457856</v>
+      </c>
+      <c r="J25">
+        <v>1.06</v>
+      </c>
+      <c r="K25">
+        <v>0.14377818788840799</v>
+      </c>
+      <c r="L25">
+        <v>108344.293305327</v>
+      </c>
+      <c r="M25">
+        <v>114628</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>15</v>
+      </c>
+      <c r="P25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>120000</v>
+      </c>
+      <c r="S25">
+        <v>5372</v>
+      </c>
+      <c r="T25">
+        <v>4.4766666666666698E-2</v>
+      </c>
+      <c r="U25">
+        <v>6283.7066946730001</v>
+      </c>
+      <c r="V25">
+        <v>8000</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>15</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>120000</v>
+      </c>
+      <c r="AC25">
+        <v>15</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0.95523333333333305</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM25">
+        <v>43759</v>
+      </c>
+      <c r="AN25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25">
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>59589.361317930103</v>
+      </c>
+      <c r="BW25">
+        <v>0</v>
+      </c>
+      <c r="BX25">
+        <v>0</v>
+      </c>
+      <c r="BY25">
+        <v>0</v>
+      </c>
+      <c r="BZ25">
+        <v>0</v>
+      </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
+      <c r="CY25">
+        <v>0</v>
+      </c>
+      <c r="CZ25">
+        <v>0</v>
+      </c>
+      <c r="DA25">
+        <v>0</v>
+      </c>
+      <c r="DB25">
+        <v>0</v>
+      </c>
+      <c r="DC25">
+        <v>0</v>
+      </c>
+      <c r="DD25">
+        <v>0</v>
+      </c>
+      <c r="DE25">
+        <v>32503.287991598201</v>
+      </c>
+      <c r="DF25">
+        <v>0</v>
+      </c>
+      <c r="DG25">
+        <v>0</v>
+      </c>
+      <c r="DH25">
+        <v>0</v>
+      </c>
+      <c r="DI25">
+        <v>0</v>
+      </c>
+      <c r="DJ25">
+        <v>0</v>
+      </c>
+      <c r="EH25">
+        <v>15</v>
+      </c>
+      <c r="EI25">
+        <v>0</v>
+      </c>
+      <c r="EJ25">
+        <v>15</v>
+      </c>
+      <c r="EK25">
+        <v>0</v>
+      </c>
+      <c r="EL25">
+        <v>15</v>
+      </c>
+      <c r="EM25">
+        <v>0</v>
+      </c>
+      <c r="EN25">
+        <v>16251.643995799101</v>
+      </c>
+      <c r="EO25">
+        <v>114628</v>
+      </c>
+      <c r="EP25">
+        <v>120000</v>
+      </c>
+      <c r="EQ25">
+        <v>120000</v>
+      </c>
+      <c r="ER25">
+        <v>5372</v>
+      </c>
+      <c r="ES25">
+        <v>5372</v>
+      </c>
+      <c r="FR25">
+        <v>0</v>
+      </c>
+      <c r="FS25">
+        <v>0</v>
+      </c>
+      <c r="FT25">
+        <v>0</v>
+      </c>
+      <c r="FU25">
+        <v>0</v>
+      </c>
+      <c r="FV25">
+        <v>0</v>
+      </c>
+      <c r="FW25">
+        <v>0</v>
+      </c>
+      <c r="FX25">
+        <v>0</v>
+      </c>
+      <c r="FY25">
+        <v>0</v>
+      </c>
+      <c r="FZ25">
+        <v>0</v>
+      </c>
+      <c r="GA25">
+        <v>0</v>
+      </c>
+      <c r="GB25">
+        <v>0</v>
+      </c>
+      <c r="GC25">
+        <v>0</v>
+      </c>
+      <c r="GE25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/special_projects.xlsx
+++ b/data/special_projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\project-x\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB2E956-75B4-47DC-9B88-3EE540B3AD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AA0EB1-B9AD-4708-824E-10D42EB65F2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-8670" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
   <dimension ref="A1:GE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
